--- a/P4/cuestionario-SUS.xlsx
+++ b/P4/cuestionario-SUS.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertollamasgonzalez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertollamasgonzalez/Desktop/INFORMATICA/TERCERO/DIU/PRACTICAS/DIU/P4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,13 +234,7 @@
     <t xml:space="preserve">VALORACION FINAL </t>
   </si>
   <si>
-    <t>ACEPTABLE A</t>
-  </si>
-  <si>
     <t>MARGINAL</t>
-  </si>
-  <si>
-    <t>MARGINAL D</t>
   </si>
   <si>
     <t>NO ACEPTABLE (SI ES &lt;40)</t>
@@ -417,20 +411,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Web: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://github.com/albertollamass/DIU</t>
-    </r>
-  </si>
-  <si>
     <t>Web: https://github.com/luciasalamanca/DIU</t>
   </si>
   <si>
@@ -462,13 +442,22 @@
   </si>
   <si>
     <t>Fiestera. Le gusta subir todo lo que hace a sus redes sociales. Tiene poca paciencia</t>
+  </si>
+  <si>
+    <t>Web: https://github.com/albertollamass/DIU</t>
+  </si>
+  <si>
+    <t>ACEPTABLE C</t>
+  </si>
+  <si>
+    <t>ACEPTABLE TIPO B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,12 +475,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -507,6 +490,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -553,16 +540,11 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF1155CC"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF24292F"/>
       <name val="Helvetica"/>
     </font>
@@ -868,15 +850,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -886,38 +868,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,57 +919,40 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,21 +966,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1026,26 +985,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1277,7 +1247,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1292,13 +1262,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,11 +1276,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
+      <c r="C2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1318,425 +1288,505 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="49">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="34">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="40" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="50"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="37"/>
+      <c r="C11" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="36">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="36">
+        <v>5</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>5</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>4</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
+        <v>4</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="36">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="31">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>6</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="54">
+        <v>2</v>
+      </c>
+      <c r="G18" s="57">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>7</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="36">
+        <v>4</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18">
+        <v>5</v>
+      </c>
+      <c r="G19" s="55">
+        <v>4</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>8</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="36">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15">
         <v>9</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
+      <c r="B21" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="36">
+        <v>4</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>5</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
         <v>10</v>
       </c>
-      <c r="C6" s="58">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="41">
-        <v>70</v>
-      </c>
-      <c r="F6" s="8">
-        <v>20</v>
-      </c>
-      <c r="G6" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="46"/>
-      <c r="C11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="B22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="36">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18">
         <v>1</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="G22" s="19">
         <v>2</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
-        <v>3</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
-        <v>4</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
-        <v>5</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
-        <v>6</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
-        <v>7</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
-        <v>8</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
-        <v>9</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
-        <v>10</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="42">
         <f>((C13-1)+(5-C14)+(C15-1)+(5-C16)+(C17-1)+(5-C18)+(C19-1)+(5-C20)+(C21-1)+(5-C22))*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="D23" s="52">
+        <v>75</v>
+      </c>
+      <c r="D23" s="43">
         <f>(SUM(D13:D22))*2.5</f>
         <v>0</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="44">
         <f t="shared" ref="E23:G23" si="0">((E13-1)+(5-E14)+(E15-1)+(5-E16)+(E17-1)+(5-E18)+(E19-1)+(5-E20)+(E21-1)+(5-E22))*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="F23" s="22">
+        <v>47.5</v>
+      </c>
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G23" s="23">
+        <v>87.5</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+        <v>82.5</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="27" t="s">
-        <v>44</v>
+      <c r="B33" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29" t="s">
-        <v>45</v>
+      <c r="B34" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2706,9 +2756,14 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C23 E23:G23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>40</formula>
@@ -2721,9 +2776,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Web: https://github.com/daniharo/DIU21"/>
-    <hyperlink ref="F2" r:id="rId2" display="Web: https://github.com/JuamMM/DIU21"/>
-    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B34" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/P4/cuestionario-SUS.xlsx
+++ b/P4/cuestionario-SUS.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertollamasgonzalez/Desktop/INFORMATICA/TERCERO/DIU/PRACTICAS/DIU/P4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josej\Desktop\universidad\3º\2ºcuatri\DIU\DIU-git\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C790D-9183-4616-BBF2-2765FB970D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -456,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -615,19 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF00FF00"/>
       </left>
@@ -849,6 +847,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00FF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -896,13 +909,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -926,57 +936,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,13 +995,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,14 +1014,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,6 +1050,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,28 +1255,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="27.77734375" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1271,174 +1287,174 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="34" t="s">
-        <v>6</v>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="G4" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="48">
         <v>35</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="34">
-        <v>70</v>
+      <c r="E6" s="9">
+        <v>40</v>
       </c>
       <c r="F6" s="7">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="G6" s="33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="51" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="37"/>
-      <c r="C11" s="60" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -1449,1312 +1465,1303 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>4</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>3</v>
+      </c>
+      <c r="G13" s="65">
         <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>3</v>
-      </c>
-      <c r="G13" s="19">
-        <v>5</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>1</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="65">
         <v>3</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>5</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17">
+        <v>5</v>
+      </c>
+      <c r="G15" s="65">
         <v>3</v>
-      </c>
-      <c r="F15" s="18">
-        <v>5</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>4</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>2</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="17">
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="65">
         <v>4</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
-        <v>2</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>4</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="17">
+      <c r="E17" s="30">
         <v>4</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="65">
         <v>4</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>6</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>2</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="17">
+      <c r="E18" s="56">
         <v>2</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="53">
         <v>2</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="65">
         <v>2</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>7</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>4</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="17">
+      <c r="E19" s="54">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5</v>
+      </c>
+      <c r="G19" s="65">
         <v>3</v>
-      </c>
-      <c r="F19" s="18">
-        <v>5</v>
-      </c>
-      <c r="G19" s="55">
-        <v>4</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>8</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>4</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="65">
         <v>3</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>9</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>4</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="17">
+      <c r="E21" s="18">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17">
+        <v>5</v>
+      </c>
+      <c r="G21" s="65">
         <v>2</v>
-      </c>
-      <c r="F21" s="18">
-        <v>5</v>
-      </c>
-      <c r="G21" s="19">
-        <v>4</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>10</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>2</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="17">
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="65">
         <v>3</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>2</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <f>((C13-1)+(5-C14)+(C15-1)+(5-C16)+(C17-1)+(5-C18)+(C19-1)+(5-C20)+(C21-1)+(5-C22))*2.5</f>
         <v>75</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="42">
         <f>(SUM(D13:D22))*2.5</f>
         <v>0</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f t="shared" ref="E23:G23" si="0">((E13-1)+(5-E14)+(E15-1)+(5-E16)+(E17-1)+(5-E18)+(E19-1)+(5-E20)+(E21-1)+(5-E22))*2.5</f>
-        <v>47.5</v>
-      </c>
-      <c r="F23" s="20">
+        <v>82.5</v>
+      </c>
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <f t="shared" si="0"/>
-        <v>82.5</v>
+        <v>47.5</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="52"/>
-      <c r="C24" s="53" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="51"/>
+      <c r="C24" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="25"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="27" t="s">
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C11:G11"/>
@@ -2770,18 +2777,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 1 and 5" sqref="C13:C22 E13:G22">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 1 and 5" sqref="C13:C22 E13:G22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B34" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId4"/>
 </worksheet>
 </file>
--- a/P4/cuestionario-SUS.xlsx
+++ b/P4/cuestionario-SUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josej\Desktop\universidad\3º\2ºcuatri\DIU\DIU-git\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0C790D-9183-4616-BBF2-2765FB970D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66004DFF-F1A9-4412-BFE6-EB03A531BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,14 +1020,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,8 +1262,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,37 +1408,37 @@
       <c r="B9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="65" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="49"/>
-      <c r="C10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="36"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
@@ -1482,7 +1482,7 @@
       <c r="F13" s="17">
         <v>3</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="59">
         <v>2</v>
       </c>
       <c r="H13" s="14"/>
@@ -1507,7 +1507,7 @@
       <c r="F14" s="17">
         <v>1</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="59">
         <v>3</v>
       </c>
       <c r="H14" s="14"/>
@@ -1532,7 +1532,7 @@
       <c r="F15" s="17">
         <v>5</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="59">
         <v>3</v>
       </c>
       <c r="H15" s="14"/>
@@ -1556,7 +1556,7 @@
       <c r="F16" s="17">
         <v>1</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="59">
         <v>4</v>
       </c>
       <c r="H16" s="14"/>
@@ -1580,7 +1580,7 @@
       <c r="F17" s="17">
         <v>3</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="59">
         <v>4</v>
       </c>
       <c r="H17" s="14"/>
@@ -1604,7 +1604,7 @@
       <c r="F18" s="53">
         <v>2</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="59">
         <v>2</v>
       </c>
       <c r="H18" s="14"/>
@@ -1628,7 +1628,7 @@
       <c r="F19" s="17">
         <v>5</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="59">
         <v>3</v>
       </c>
       <c r="H19" s="14"/>
@@ -1652,7 +1652,7 @@
       <c r="F20" s="17">
         <v>1</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="59">
         <v>3</v>
       </c>
       <c r="H20" s="14"/>
@@ -1676,7 +1676,7 @@
       <c r="F21" s="17">
         <v>5</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="59">
         <v>2</v>
       </c>
       <c r="H21" s="14"/>
@@ -1700,7 +1700,7 @@
       <c r="F22" s="17">
         <v>1</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="59">
         <v>3</v>
       </c>
       <c r="H22" s="14"/>
@@ -1743,13 +1743,13 @@
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="22" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>60</v>
+      <c r="G24" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2789,6 +2789,6 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="72" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId4"/>
 </worksheet>
 </file>